--- a/docs/StructureDefinition-patient.xlsx
+++ b/docs/StructureDefinition-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3640" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3640" uniqueCount="666">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://roadxcore.com/fhir/v1/StructureDefinition/patient</t>
+    <t>https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/patient</t>
   </si>
   <si>
     <t>Version</t>
@@ -39,13 +39,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>RoadxCorePatient</t>
+    <t>SehatukCorePatient</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t xml:space="preserve">RoadxCore  Patient </t>
+    <t xml:space="preserve">SehatukCore  Patient </t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T11:55:47+04:00</t>
+    <t>2022-11-19T09:21:48+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>RoadxCore Patient Profile</t>
+    <t>SehatukCore Patient Profile</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -253,10 +253,6 @@
     <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Patient[classCode=PAT]</t>
   </si>
   <si>
@@ -270,47 +266,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Patient.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Patient.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Patient.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Patient.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -363,10 +363,6 @@
     <t>Patient.meta.versionId</t>
   </si>
   <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
     <t>Version specific identifier</t>
   </si>
   <si>
@@ -599,14 +595,14 @@
     <t>patient-religion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://roadxcore.com/fhir/v1/StructureDefinition/extension-patient-religion}
+    <t xml:space="preserve">Extension {https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/extension-patient-religion}
 </t>
   </si>
   <si>
     <t>Patient Religion Extension</t>
   </si>
   <si>
-    <t>Patient religion as per the RoadxCore adopted list of religions</t>
+    <t>Patient religion as per the SehatukCore adopted list of religions</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -666,14 +662,14 @@
     <t>country</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://roadxcore.com/fhir/v1/StructureDefinition/extension-identifier-country}
+    <t xml:space="preserve">Extension {https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/extension-identifier-country}
 </t>
   </si>
   <si>
     <t>Patient Identifier Country Extension</t>
   </si>
   <si>
-    <t>Patient identifier country as per the RoadxCore adopted list of countries</t>
+    <t>Patient identifier country as per the SehatukCore adopted list of countries</t>
   </si>
   <si>
     <t>Patient.identifier.use</t>
@@ -725,7 +721,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>http://roadxcore.com/terminology/ValueSet/patient-identifier-type</t>
+    <t>https://www.sehatuk.ae/terminology/ValueSet/patient-identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1128,14 +1124,14 @@
     <t>Patient.gender.extension</t>
   </si>
   <si>
-    <t>roadx-administrative-gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://roadxcore.com/fhir/v1/StructureDefinition/extension-roadx-administrative-gender}
+    <t>sehatuk-administrative-gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/Extension-Sehatuk-administrative-gender}
 </t>
   </si>
   <si>
-    <t>Roadx Administrative Gender Extension</t>
+    <t>Sehatuk Administrative Gender Extension</t>
   </si>
   <si>
     <t>The Saudi Administrative Gender codes</t>
@@ -2391,17 +2387,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="38.1796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.0390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.48828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.4921875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2410,27 +2406,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.22265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.96875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.20703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.95703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.41015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="151.51171875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="39.390625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="103.671875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.43359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="103.6171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.4375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2649,13 +2645,13 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>75</v>
@@ -2669,7 +2665,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2677,31 +2673,31 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2751,13 +2747,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -2783,7 +2779,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2791,28 +2787,28 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="H4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2863,19 +2859,19 @@
         <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -2895,7 +2891,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2906,7 +2902,7 @@
         <v>73</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
@@ -2918,7 +2914,7 @@
         <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>96</v>
@@ -2981,7 +2977,7 @@
         <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
@@ -3132,28 +3128,28 @@
         <v>73</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3203,19 +3199,19 @@
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>75</v>
@@ -3235,7 +3231,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -3246,28 +3242,28 @@
         <v>73</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3317,19 +3313,19 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>75</v>
@@ -3349,7 +3345,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3360,28 +3356,28 @@
         <v>73</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3431,19 +3427,19 @@
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>75</v>
@@ -3463,7 +3459,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -3471,31 +3467,31 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3545,7 +3541,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>73</v>
@@ -3557,7 +3553,7 @@
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>75</v>
@@ -3577,7 +3573,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3597,19 +3593,19 @@
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3635,31 +3631,31 @@
         <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>73</v>
@@ -3671,7 +3667,7 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>75</v>
@@ -3691,7 +3687,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3711,19 +3707,19 @@
         <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3749,31 +3745,31 @@
         <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>73</v>
@@ -3785,7 +3781,7 @@
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>75</v>
@@ -3805,7 +3801,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3816,28 +3812,28 @@
         <v>73</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3887,19 +3883,19 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>75</v>
@@ -3919,7 +3915,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3930,7 +3926,7 @@
         <v>73</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>75</v>
@@ -3942,16 +3938,16 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3977,43 +3973,43 @@
         <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>75</v>
@@ -4033,18 +4029,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>75</v>
@@ -4056,16 +4052,16 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -4115,22 +4111,22 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>75</v>
@@ -4147,11 +4143,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -4170,16 +4166,16 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4229,7 +4225,7 @@
         <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>73</v>
@@ -4244,7 +4240,7 @@
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
@@ -4261,7 +4257,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4287,10 +4283,10 @@
         <v>102</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4339,7 +4335,7 @@
         <v>108</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>73</v>
@@ -4371,10 +4367,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>75</v>
@@ -4384,11 +4380,11 @@
         <v>73</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
       </c>
@@ -4396,13 +4392,13 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4453,7 +4449,7 @@
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>73</v>
@@ -4462,7 +4458,7 @@
         <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>110</v>
@@ -4485,7 +4481,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4502,7 +4498,7 @@
         <v>75</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>75</v>
@@ -4511,16 +4507,16 @@
         <v>102</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>105</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>75</v>
@@ -4569,7 +4565,7 @@
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>73</v>
@@ -4584,7 +4580,7 @@
         <v>110</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>75</v>
@@ -4601,7 +4597,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4609,32 +4605,32 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>75</v>
@@ -4683,7 +4679,7 @@
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>73</v>
@@ -4695,19 +4691,19 @@
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>75</v>
@@ -4715,7 +4711,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4726,7 +4722,7 @@
         <v>73</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>75</v>
@@ -4738,7 +4734,7 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>96</v>
@@ -4801,7 +4797,7 @@
         <v>73</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>75</v>
@@ -4827,7 +4823,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4941,10 +4937,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>75</v>
@@ -4954,11 +4950,11 @@
         <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G23" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="H23" t="s" s="2">
         <v>75</v>
       </c>
@@ -4966,13 +4962,13 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -5055,7 +5051,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5066,31 +5062,31 @@
         <v>73</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="I24" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>75</v>
@@ -5115,47 +5111,47 @@
         <v>75</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="Z24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
       </c>
@@ -5163,7 +5159,7 @@
         <v>75</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>75</v>
@@ -5171,7 +5167,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5179,34 +5175,34 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J25" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>75</v>
@@ -5231,53 +5227,53 @@
         <v>75</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>75</v>
@@ -5285,7 +5281,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5293,34 +5289,34 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>75</v>
@@ -5333,67 +5329,67 @@
         <v>75</v>
       </c>
       <c r="S26" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="T26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AK26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>75</v>
@@ -5401,7 +5397,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5409,31 +5405,31 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5447,67 +5443,67 @@
         <v>75</v>
       </c>
       <c r="S27" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="T27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
+      <c r="AK27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>75</v>
@@ -5515,7 +5511,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5526,25 +5522,25 @@
         <v>73</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5595,31 +5591,31 @@
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
+      <c r="AK28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>75</v>
@@ -5627,7 +5623,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5638,28 +5634,28 @@
         <v>73</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J29" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5709,31 +5705,31 @@
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>75</v>
@@ -5741,7 +5737,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5749,106 +5745,106 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G30" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="H30" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="I30" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="P30" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="O30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P30" t="s" s="2">
+      <c r="Q30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>75</v>
@@ -5859,7 +5855,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5867,34 +5863,34 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>75</v>
@@ -5943,7 +5939,7 @@
         <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>73</v>
@@ -5955,19 +5951,19 @@
         <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>75</v>
@@ -5975,7 +5971,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5986,7 +5982,7 @@
         <v>73</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>75</v>
@@ -5998,7 +5994,7 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>96</v>
@@ -6061,7 +6057,7 @@
         <v>73</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>75</v>
@@ -6087,7 +6083,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6201,7 +6197,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6212,31 +6208,31 @@
         <v>73</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H34" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="I34" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>75</v>
@@ -6261,55 +6257,55 @@
         <v>75</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE34" t="s" s="2">
+      <c r="AF34" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>75</v>
@@ -6317,7 +6313,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6325,34 +6321,34 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>75</v>
@@ -6401,31 +6397,31 @@
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>75</v>
@@ -6433,39 +6429,39 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6515,31 +6511,31 @@
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AK36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>75</v>
@@ -6547,11 +6543,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -6567,19 +6563,19 @@
         <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6629,7 +6625,7 @@
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>73</v>
@@ -6641,19 +6637,19 @@
         <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>75</v>
@@ -6661,7 +6657,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6681,16 +6677,16 @@
         <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6741,7 +6737,7 @@
         <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>73</v>
@@ -6753,19 +6749,19 @@
         <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>75</v>
@@ -6773,7 +6769,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6793,16 +6789,16 @@
         <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6853,7 +6849,7 @@
         <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>73</v>
@@ -6865,19 +6861,19 @@
         <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>75</v>
@@ -6885,7 +6881,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6896,29 +6892,29 @@
         <v>73</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>75</v>
@@ -6967,31 +6963,31 @@
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
+      <c r="AK40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>75</v>
@@ -6999,7 +6995,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7010,31 +7006,31 @@
         <v>73</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G41" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="H41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>75</v>
@@ -7083,7 +7079,7 @@
         <v>75</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>73</v>
@@ -7095,19 +7091,19 @@
         <v>75</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>75</v>
@@ -7115,7 +7111,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7123,34 +7119,34 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G42" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="H42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>75</v>
@@ -7175,55 +7171,55 @@
         <v>75</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Y42" t="s" s="2">
+      <c r="Z42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
+      <c r="AK42" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>75</v>
@@ -7231,7 +7227,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7242,7 +7238,7 @@
         <v>73</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>75</v>
@@ -7254,13 +7250,13 @@
         <v>75</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7317,7 +7313,7 @@
         <v>73</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>75</v>
@@ -7343,7 +7339,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7351,7 +7347,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>74</v>
@@ -7369,10 +7365,10 @@
         <v>102</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7453,24 +7449,24 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G45" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
       </c>
@@ -7478,13 +7474,13 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7544,7 +7540,7 @@
         <v>74</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>110</v>
@@ -7567,7 +7563,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7578,7 +7574,7 @@
         <v>73</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>75</v>
@@ -7590,13 +7586,13 @@
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7647,13 +7643,13 @@
         <v>75</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>75</v>
@@ -7679,7 +7675,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7687,34 +7683,34 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G47" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="H47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J47" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>75</v>
@@ -7763,39 +7759,39 @@
         <v>75</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>374</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7806,31 +7802,31 @@
         <v>73</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G48" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="H48" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>75</v>
@@ -7879,22 +7875,22 @@
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>99</v>
@@ -7903,7 +7899,7 @@
         <v>75</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>75</v>
@@ -7911,7 +7907,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7922,31 +7918,31 @@
         <v>73</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G49" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>75</v>
@@ -7995,7 +7991,7 @@
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>73</v>
@@ -8007,19 +8003,19 @@
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>75</v>
@@ -8027,7 +8023,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8038,7 +8034,7 @@
         <v>73</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>75</v>
@@ -8050,7 +8046,7 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>96</v>
@@ -8113,7 +8109,7 @@
         <v>73</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>75</v>
@@ -8139,7 +8135,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8253,7 +8249,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8264,31 +8260,31 @@
         <v>73</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H52" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="I52" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>75</v>
@@ -8301,67 +8297,67 @@
         <v>75</v>
       </c>
       <c r="S52" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="X52" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="T52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="X52" t="s" s="2">
+      <c r="Y52" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="Y52" t="s" s="2">
+      <c r="Z52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE52" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE52" t="s" s="2">
+      <c r="AF52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>75</v>
@@ -8369,7 +8365,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8380,28 +8376,28 @@
         <v>73</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8415,67 +8411,67 @@
         <v>75</v>
       </c>
       <c r="S53" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="X53" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="T53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="X53" t="s" s="2">
+      <c r="Y53" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="Y53" t="s" s="2">
+      <c r="Z53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE53" t="s" s="2">
+      <c r="AF53" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>75</v>
@@ -8483,7 +8479,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8491,34 +8487,34 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="N54" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>75</v>
@@ -8531,67 +8527,67 @@
         <v>75</v>
       </c>
       <c r="S54" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="T54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE54" t="s" s="2">
+      <c r="AF54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>75</v>
@@ -8599,7 +8595,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8619,16 +8615,16 @@
         <v>75</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8643,43 +8639,43 @@
         <v>75</v>
       </c>
       <c r="S55" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE55" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>73</v>
@@ -8691,19 +8687,19 @@
         <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>75</v>
@@ -8711,36 +8707,36 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8755,67 +8751,67 @@
         <v>75</v>
       </c>
       <c r="S56" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="T56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE56" t="s" s="2">
+      <c r="AF56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AF56" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
+      <c r="AK56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>75</v>
@@ -8823,39 +8819,39 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J57" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8869,67 +8865,67 @@
         <v>75</v>
       </c>
       <c r="S57" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="T57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE57" t="s" s="2">
+      <c r="AF57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AF57" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
+      <c r="AK57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>75</v>
@@ -8937,36 +8933,36 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -9017,31 +9013,31 @@
         <v>75</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AF58" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
+      <c r="AK58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>75</v>
@@ -9049,36 +9045,36 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="F59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I59" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J59" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -9093,67 +9089,67 @@
         <v>75</v>
       </c>
       <c r="S59" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE59" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="T59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE59" t="s" s="2">
+      <c r="AF59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AF59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
+      <c r="AK59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>75</v>
@@ -9161,7 +9157,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9172,28 +9168,28 @@
         <v>73</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -9243,31 +9239,31 @@
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AF60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
+      <c r="AK60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>75</v>
@@ -9275,7 +9271,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9286,29 +9282,29 @@
         <v>73</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J61" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>75</v>
@@ -9321,67 +9317,67 @@
         <v>75</v>
       </c>
       <c r="S61" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE61" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="T61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE61" t="s" s="2">
+      <c r="AF61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>75</v>
@@ -9389,7 +9385,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9400,11 +9396,11 @@
         <v>73</v>
       </c>
       <c r="F62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G62" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="H62" t="s" s="2">
         <v>75</v>
       </c>
@@ -9412,17 +9408,17 @@
         <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>75</v>
@@ -9447,53 +9443,53 @@
         <v>75</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X62" s="2"/>
       <c r="Y62" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
+      <c r="AK62" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>75</v>
@@ -9501,7 +9497,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9512,7 +9508,7 @@
         <v>73</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>75</v>
@@ -9524,7 +9520,7 @@
         <v>75</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>96</v>
@@ -9587,7 +9583,7 @@
         <v>73</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>75</v>
@@ -9613,7 +9609,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9727,7 +9723,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9747,22 +9743,22 @@
         <v>75</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>75</v>
@@ -9811,7 +9807,7 @@
         <v>75</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>73</v>
@@ -9823,19 +9819,19 @@
         <v>75</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>75</v>
@@ -9843,7 +9839,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9854,7 +9850,7 @@
         <v>73</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>75</v>
@@ -9866,7 +9862,7 @@
         <v>75</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>96</v>
@@ -9929,7 +9925,7 @@
         <v>73</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>75</v>
@@ -9955,7 +9951,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10069,7 +10065,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10077,34 +10073,34 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J68" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>75</v>
@@ -10153,31 +10149,31 @@
         <v>75</v>
       </c>
       <c r="AE68" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="AF68" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
+      <c r="AK68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>75</v>
@@ -10185,7 +10181,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10196,28 +10192,28 @@
         <v>73</v>
       </c>
       <c r="F69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J69" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10267,31 +10263,31 @@
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AF69" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
+      <c r="AK69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>75</v>
@@ -10299,7 +10295,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10307,32 +10303,32 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J70" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>75</v>
@@ -10381,31 +10377,31 @@
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AF70" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
+      <c r="AK70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>75</v>
@@ -10413,7 +10409,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10424,29 +10420,29 @@
         <v>73</v>
       </c>
       <c r="F71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J71" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>75</v>
@@ -10495,31 +10491,31 @@
         <v>75</v>
       </c>
       <c r="AE71" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="AF71" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
+      <c r="AK71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>75</v>
@@ -10527,7 +10523,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10538,31 +10534,31 @@
         <v>73</v>
       </c>
       <c r="F72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I72" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J72" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>75</v>
@@ -10611,31 +10607,31 @@
         <v>75</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="AF72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
+      <c r="AK72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>75</v>
@@ -10643,7 +10639,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10654,31 +10650,31 @@
         <v>73</v>
       </c>
       <c r="F73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J73" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>75</v>
@@ -10727,31 +10723,31 @@
         <v>75</v>
       </c>
       <c r="AE73" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AF73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
+      <c r="AK73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>75</v>
@@ -10759,7 +10755,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10770,7 +10766,7 @@
         <v>73</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>75</v>
@@ -10782,19 +10778,19 @@
         <v>75</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>75</v>
@@ -10843,22 +10839,22 @@
         <v>75</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>99</v>
@@ -10867,7 +10863,7 @@
         <v>75</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>75</v>
@@ -10875,7 +10871,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10898,19 +10894,19 @@
         <v>75</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>75</v>
@@ -10959,7 +10955,7 @@
         <v>75</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>73</v>
@@ -10971,10 +10967,10 @@
         <v>75</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>99</v>
@@ -10983,7 +10979,7 @@
         <v>75</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>75</v>
@@ -10991,7 +10987,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11014,19 +11010,19 @@
         <v>75</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>75</v>
@@ -11075,7 +11071,7 @@
         <v>75</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>73</v>
@@ -11087,10 +11083,10 @@
         <v>75</v>
       </c>
       <c r="AI76" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>99</v>
@@ -11107,7 +11103,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11118,7 +11114,7 @@
         <v>73</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>75</v>
@@ -11130,7 +11126,7 @@
         <v>75</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>96</v>
@@ -11193,7 +11189,7 @@
         <v>73</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>75</v>
@@ -11219,7 +11215,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11333,11 +11329,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11350,25 +11346,25 @@
         <v>75</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>105</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>75</v>
@@ -11417,7 +11413,7 @@
         <v>75</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>73</v>
@@ -11432,7 +11428,7 @@
         <v>110</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>75</v>
@@ -11449,7 +11445,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11472,17 +11468,17 @@
         <v>75</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>75</v>
@@ -11507,14 +11503,14 @@
         <v>75</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="X80" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="Y80" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="Y80" t="s" s="2">
-        <v>574</v>
-      </c>
       <c r="Z80" t="s" s="2">
         <v>75</v>
       </c>
@@ -11531,7 +11527,7 @@
         <v>75</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>73</v>
@@ -11543,10 +11539,10 @@
         <v>75</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>99</v>
@@ -11555,7 +11551,7 @@
         <v>75</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>75</v>
@@ -11563,7 +11559,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11574,7 +11570,7 @@
         <v>73</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>75</v>
@@ -11586,17 +11582,17 @@
         <v>75</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>75</v>
@@ -11645,22 +11641,22 @@
         <v>75</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>99</v>
@@ -11669,7 +11665,7 @@
         <v>75</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>75</v>
@@ -11677,7 +11673,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11700,19 +11696,19 @@
         <v>75</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="M82" t="s" s="2">
-        <v>585</v>
-      </c>
       <c r="N82" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>75</v>
@@ -11761,7 +11757,7 @@
         <v>75</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>73</v>
@@ -11773,10 +11769,10 @@
         <v>75</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>99</v>
@@ -11785,7 +11781,7 @@
         <v>75</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>75</v>
@@ -11793,7 +11789,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11804,7 +11800,7 @@
         <v>73</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>75</v>
@@ -11816,17 +11812,17 @@
         <v>75</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>75</v>
@@ -11875,22 +11871,22 @@
         <v>75</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>99</v>
@@ -11899,7 +11895,7 @@
         <v>75</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>75</v>
@@ -11907,7 +11903,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11918,7 +11914,7 @@
         <v>73</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>75</v>
@@ -11930,17 +11926,17 @@
         <v>75</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>75</v>
@@ -11965,46 +11961,46 @@
         <v>75</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X84" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Y84" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Y84" t="s" s="2">
+      <c r="Z84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>99</v>
@@ -12013,7 +12009,7 @@
         <v>75</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>75</v>
@@ -12021,7 +12017,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12032,7 +12028,7 @@
         <v>73</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>75</v>
@@ -12044,17 +12040,17 @@
         <v>75</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>75</v>
@@ -12103,22 +12099,22 @@
         <v>75</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH85" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>99</v>
@@ -12127,7 +12123,7 @@
         <v>75</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>75</v>
@@ -12135,7 +12131,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12146,7 +12142,7 @@
         <v>73</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>75</v>
@@ -12158,13 +12154,13 @@
         <v>75</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12215,22 +12211,22 @@
         <v>75</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>99</v>
@@ -12247,7 +12243,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12270,19 +12266,19 @@
         <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>75</v>
@@ -12331,7 +12327,7 @@
         <v>75</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>73</v>
@@ -12343,13 +12339,13 @@
         <v>75</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AK87" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>75</v>
@@ -12363,7 +12359,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12374,7 +12370,7 @@
         <v>73</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>75</v>
@@ -12386,7 +12382,7 @@
         <v>75</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>96</v>
@@ -12449,7 +12445,7 @@
         <v>73</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>75</v>
@@ -12475,7 +12471,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12589,11 +12585,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12606,25 +12602,25 @@
         <v>75</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>105</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>75</v>
@@ -12673,7 +12669,7 @@
         <v>75</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>73</v>
@@ -12688,7 +12684,7 @@
         <v>110</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>75</v>
@@ -12705,7 +12701,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12713,10 +12709,10 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>75</v>
@@ -12728,19 +12724,19 @@
         <v>75</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>75</v>
@@ -12765,14 +12761,14 @@
         <v>75</v>
       </c>
       <c r="W91" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="X91" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="X91" t="s" s="2">
+      <c r="Y91" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Y91" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="Z91" t="s" s="2">
         <v>75</v>
       </c>
@@ -12789,31 +12785,31 @@
         <v>75</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ91" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AK91" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="AK91" t="s" s="2">
+      <c r="AL91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>75</v>
@@ -12821,7 +12817,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12832,7 +12828,7 @@
         <v>73</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>75</v>
@@ -12844,19 +12840,19 @@
         <v>75</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>75</v>
@@ -12905,31 +12901,31 @@
         <v>75</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ92" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AK92" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="AK92" t="s" s="2">
+      <c r="AL92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>75</v>
@@ -12937,11 +12933,11 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12960,16 +12956,16 @@
         <v>75</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="L93" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -13019,7 +13015,7 @@
         <v>75</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>73</v>
@@ -13031,10 +13027,10 @@
         <v>75</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>99</v>
@@ -13043,7 +13039,7 @@
         <v>75</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>75</v>
@@ -13051,7 +13047,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13062,31 +13058,31 @@
         <v>73</v>
       </c>
       <c r="F94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I94" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="G94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J94" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>75</v>
@@ -13135,25 +13131,25 @@
         <v>75</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>75</v>
@@ -13167,7 +13163,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13184,25 +13180,25 @@
         <v>75</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>651</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>75</v>
@@ -13251,7 +13247,7 @@
         <v>75</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>73</v>
@@ -13263,10 +13259,10 @@
         <v>75</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>99</v>
@@ -13283,7 +13279,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13294,7 +13290,7 @@
         <v>73</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>75</v>
@@ -13306,7 +13302,7 @@
         <v>75</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>96</v>
@@ -13369,7 +13365,7 @@
         <v>73</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>75</v>
@@ -13395,7 +13391,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13509,11 +13505,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13526,25 +13522,25 @@
         <v>75</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J98" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="M98" t="s" s="2">
         <v>105</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>75</v>
@@ -13593,7 +13589,7 @@
         <v>75</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>73</v>
@@ -13608,7 +13604,7 @@
         <v>110</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>75</v>
@@ -13625,7 +13621,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13633,31 +13629,31 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I99" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J99" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="K99" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="K99" t="s" s="2">
+      <c r="L99" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -13707,22 +13703,22 @@
         <v>75</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>99</v>
@@ -13731,7 +13727,7 @@
         <v>75</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>75</v>
@@ -13739,7 +13735,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13747,28 +13743,28 @@
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I100" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J100" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13795,46 +13791,46 @@
         <v>75</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X100" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="Y100" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="Y100" t="s" s="2">
+      <c r="Z100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>666</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>99</v>

--- a/docs/StructureDefinition-patient.xlsx
+++ b/docs/StructureDefinition-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T09:21:48+04:00</t>
+    <t>2022-11-19T09:53:21+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
